--- a/biology/Botanique/Balbianiaceae/Balbianiaceae.xlsx
+++ b/biology/Botanique/Balbianiaceae/Balbianiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Balbianiaceae sont une famille d’algues rouges de l’ordre des Balbianiales dont le genre type, Balbiania, fut découvert en 1872 dans les eaux douces du département français d'Ille-et-Vilaine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Balbianiaceae sont une famille d’algues rouges de l’ordre des Balbianiales dont le genre type, Balbiania, fut découvert en 1872 dans les eaux douces du département français d'Ille-et-Vilaine.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du  genre type Balbiania, donné en hommage à Édouard-Gérard Balbiani, Professeur au Collège de France[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du  genre type Balbiania, donné en hommage à Édouard-Gérard Balbiani, Professeur au Collège de France.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique de ce taxon est Balbianiaceae R.G.Sheath &amp; K.M.Müller 1999[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de ce taxon est Balbianiaceae R.G.Sheath &amp; K.M.Müller 1999.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (6 janvier 2022)[2], IRMNG  (6 janvier 2022)[3], World Register of Marine Species                               (6 janvier 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (6 janvier 2022), IRMNG  (6 janvier 2022), World Register of Marine Species                               (6 janvier 2022) :
 Balbiania (pt), Sirodot, 1876
 Rhododraparnaldia (pt), R.G.Sheath, A.Whittick &amp; K.M.Cole, 1994</t>
         </is>
